--- a/prompt00001/data.xlsx
+++ b/prompt00001/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,48 @@
   </si>
   <si>
     <t>我想把兩張照片合成在同一張畫面裡。畫面中，成年版的他摟著小時候的自己肩膀，兩人並肩站在一起。兩人都要看著鏡頭，臉部特徵盡量維持與原始照片一致，逼真度要高。整體氛圍：紅色空間，背景是紅葉森林</t>
+  </si>
+  <si>
+    <t>自我卡通貼紙</t>
+  </si>
+  <si>
+    <t>00003.png</t>
+  </si>
+  <si>
+    <t>young2.jpg</t>
+  </si>
+  <si>
+    <t>Making a playful peace sign with both hands and winking. Tearful eyes and slightly trembling lips, showing a cute crying expression. Arms wide open in a warm, enthusiastic hug pose. Lying on their side asleep, resting on a tiny pillow with a sweet smile. Pointing forward with confidence, surrounded by shining visual effects. Blowing a kiss, with heart symbols floating around. Maintain the chibi aesthetic. Exaggerated, expressive big eyes. Soft facial lines. Background: Vibrant red with star or colorful confetti elements for decoration. Leave some clean white space around each sticker. Aspect ratio: 9:16</t>
+  </si>
+  <si>
+    <t>更換衣服</t>
+  </si>
+  <si>
+    <t>00004.png</t>
+  </si>
+  <si>
+    <t>图中人物，更換上另一图的衣服。</t>
+  </si>
+  <si>
+    <t>3D figurine</t>
+  </si>
+  <si>
+    <t>00005.png</t>
+  </si>
+  <si>
+    <t>Create a 1/7 scale commercialized figurine of the characters in the picture, in a realistic style, in a real environment. The figurine is placed on a computer desk. The figurine has a round transparent acrylic base, with no text on the base. The content on the computer screen is a 3D modeling process of this figurine. Next to the computer screen is a toy packaging box, designed in a style reminiscent of high-quality collectible figures, printed with original artwork. The packaging features two-dimensional flat illustrations</t>
+  </si>
+  <si>
+    <t>向國家致敬</t>
+  </si>
+  <si>
+    <t>00006.png</t>
+  </si>
+  <si>
+    <t>flag.jpg</t>
+  </si>
+  <si>
+    <t>图中人向國家昂首致敬，衷心的，有氣勢的。衣服，背景請配合國旗(見图)。註，人物樣子不能改，但可配合情景</t>
   </si>
 </sst>
 </file>
@@ -392,6 +434,89 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/prompt00001/data.xlsx
+++ b/prompt00001/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,27 @@
   </si>
   <si>
     <t>图中人向國家昂首致敬，衷心的，有氣勢的。衣服，背景請配合國旗(見图)。註，人物樣子不能改，但可配合情景</t>
+  </si>
+  <si>
+    <t>月光光</t>
+  </si>
+  <si>
+    <t>00007.png</t>
+  </si>
+  <si>
+    <t>fright.jpg</t>
+  </si>
+  <si>
+    <t>中秋的大月光在图中的天空出現。月光佔了天空一半，又圆又大</t>
+  </si>
+  <si>
+    <t>暴龍頭上</t>
+  </si>
+  <si>
+    <t>00008.png</t>
+  </si>
+  <si>
+    <t>图中的人坐在暴龍頭上，人的服裝换上樹葉做的和背景是朱羅记時代</t>
   </si>
 </sst>
 </file>
@@ -508,13 +529,53 @@
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/prompt00001/data.xlsx
+++ b/prompt00001/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>吉卜力（Ghibli）風格</t>
   </si>
   <si>
+    <t>玩法: 上載一張自己的相，就可轉為吉卜力(Ghibli)風格</t>
+  </si>
+  <si>
     <t>00002.png</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>成年, 小時候的自己合照</t>
   </si>
   <si>
+    <t>玩法: 上載一張成年, 一張小時候的相，就可得出自己的合照</t>
+  </si>
+  <si>
     <t>00001.png</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>自我卡通貼紙</t>
   </si>
   <si>
+    <t>玩法: 上載一張自己的相, 可生成自己的卡通貼紙</t>
+  </si>
+  <si>
     <t>00003.png</t>
   </si>
   <si>
@@ -79,15 +88,24 @@
     <t>更換衣服</t>
   </si>
   <si>
+    <t>玩法: 上載一張自己的相和一張衣服相，就可更換衣服</t>
+  </si>
+  <si>
     <t>00004.png</t>
   </si>
   <si>
+    <t>dress.jpg</t>
+  </si>
+  <si>
     <t>图中人物，更換上另一图的衣服。</t>
   </si>
   <si>
     <t>3D figurine</t>
   </si>
   <si>
+    <t>玩法: 上載一張自己的相, 就可做出一副3D figurine圖</t>
+  </si>
+  <si>
     <t>00005.png</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t>向國家致敬</t>
   </si>
   <si>
+    <t>玩法: 上載一張自己的相, 和一枝國旗的相，就可向國家致敬</t>
+  </si>
+  <si>
     <t>00006.png</t>
   </si>
   <si>
@@ -109,6 +130,9 @@
     <t>月光光</t>
   </si>
   <si>
+    <t>玩法: 上載一張有天空的相，大大的月亮就可出現</t>
+  </si>
+  <si>
     <t>00007.png</t>
   </si>
   <si>
@@ -119,6 +143,9 @@
   </si>
   <si>
     <t>暴龍頭上</t>
+  </si>
+  <si>
+    <t>玩法: 上載一張自己的相, ，就可以與暴龍合照</t>
   </si>
   <si>
     <t>00008.png</t>
@@ -420,16 +447,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -437,22 +464,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -460,19 +487,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -480,19 +507,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -500,19 +530,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -520,22 +550,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -543,19 +573,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -563,19 +593,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/prompt00001/data.xlsx
+++ b/prompt00001/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -152,6 +152,36 @@
   </si>
   <si>
     <t>图中的人坐在暴龍頭上，人的服裝换上樹葉做的和背景是朱羅记時代</t>
+  </si>
+  <si>
+    <t>日落</t>
+  </si>
+  <si>
+    <t>玩法: 上載一張有天空的相，黄昏的太陽就可出現</t>
+  </si>
+  <si>
+    <t>00009.png</t>
+  </si>
+  <si>
+    <t>night.jpg</t>
+  </si>
+  <si>
+    <t>图轉為黄昏，見到淡橙紅色的日落，大大的太陽佔图上的天空的一半。</t>
+  </si>
+  <si>
+    <t>大海</t>
+  </si>
+  <si>
+    <t>玩法: 上載一張自己的相, ，地就可以轉為大海</t>
+  </si>
+  <si>
+    <t>00010.png</t>
+  </si>
+  <si>
+    <t>boat.png</t>
+  </si>
+  <si>
+    <t>將地下變成大海，相的主体不變，周邊建筑物消失，轉為海島背景，所有主体上的人物不變。大海有不同生物。相片要有真實感。</t>
   </si>
 </sst>
 </file>
@@ -608,6 +638,46 @@
         <v>46</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/prompt00001/data.xlsx
+++ b/prompt00001/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,33 @@
   </si>
   <si>
     <t>prompt</t>
+  </si>
+  <si>
+    <t>pull_down1</t>
+  </si>
+  <si>
+    <t>pull_down1_choice</t>
+  </si>
+  <si>
+    <t>pull_down2</t>
+  </si>
+  <si>
+    <t>pull_down2_choice</t>
+  </si>
+  <si>
+    <t>pull_down3</t>
+  </si>
+  <si>
+    <t>pull_down3_choice</t>
+  </si>
+  <si>
+    <t>input1</t>
+  </si>
+  <si>
+    <t>input2</t>
+  </si>
+  <si>
+    <t>input3</t>
   </si>
   <si>
     <t>吉卜力（Ghibli）風格</t>
@@ -468,25 +495,52 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -494,22 +548,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -517,19 +571,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -537,22 +591,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +614,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -580,22 +634,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -603,19 +657,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -623,19 +677,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -643,19 +697,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -663,19 +717,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
